--- a/Data/FinalCopy of SPI SCORE 2016-2018-DW.xlsx
+++ b/Data/FinalCopy of SPI SCORE 2016-2018-DW.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935B3F2-9E16-49FD-B6FB-7CC362D2781C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EF6509-7353-4EBA-896B-FADF613B7785}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10575" yWindow="1140" windowWidth="16485" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPI score 2016-2018" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SPI score 2016-2018'!$A$1:$Q$190</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="395">
   <si>
     <t>Country</t>
   </si>
@@ -1165,6 +1166,54 @@
   </si>
   <si>
     <t>Upper middle income</t>
+  </si>
+  <si>
+    <t>MSC_2016</t>
+  </si>
+  <si>
+    <t>C &amp; S_2016</t>
+  </si>
+  <si>
+    <t>AKI_2016</t>
+  </si>
+  <si>
+    <t>DPO_2016</t>
+  </si>
+  <si>
+    <t>Overall_2016</t>
+  </si>
+  <si>
+    <t>MSC_2017</t>
+  </si>
+  <si>
+    <t>C &amp; S_2017</t>
+  </si>
+  <si>
+    <t>AKI_2017</t>
+  </si>
+  <si>
+    <t>DPO_2017</t>
+  </si>
+  <si>
+    <t>Overall_2017</t>
+  </si>
+  <si>
+    <t>Overall_2018</t>
+  </si>
+  <si>
+    <t>DPO_2018</t>
+  </si>
+  <si>
+    <t>AKI_2018</t>
+  </si>
+  <si>
+    <t>C &amp; S_2018</t>
+  </si>
+  <si>
+    <t>MSC_2018</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -1558,16 +1607,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2792752-FE01-4CB0-ACFD-FB33BD86F0BD}">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
-    <col min="3" max="12" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -11620,4 +11680,7760 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2864B74-C8ED-4210-B28A-A1FAA1204722}">
+  <dimension ref="A1:Q146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D2" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F2" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G2" s="6">
+        <v>41.517857142857103</v>
+      </c>
+      <c r="H2" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I2" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>75</v>
+      </c>
+      <c r="K2" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L2" s="7">
+        <v>43.601190476190503</v>
+      </c>
+      <c r="M2" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N2" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="O2" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P2" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>49.255952380952401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>42.7083333333333</v>
+      </c>
+      <c r="H3" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>42.7083333333333</v>
+      </c>
+      <c r="M3" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N3" s="5">
+        <v>50</v>
+      </c>
+      <c r="O3" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P3" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>49.255952380952401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="D4" s="5">
+        <v>70</v>
+      </c>
+      <c r="E4" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F4" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="G4" s="6">
+        <v>79.553571428571402</v>
+      </c>
+      <c r="H4" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="I4" s="5">
+        <v>70</v>
+      </c>
+      <c r="J4" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K4" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="L4" s="7">
+        <v>79.553571428571402</v>
+      </c>
+      <c r="M4" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="N4" s="5">
+        <v>70</v>
+      </c>
+      <c r="O4" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P4" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>84.1666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="D5" s="5">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F5" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G5" s="6">
+        <v>66.398809523809504</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="I5" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="J5" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K5" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L5" s="7">
+        <v>67.544642857142804</v>
+      </c>
+      <c r="M5" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="N5" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="O5" s="5">
+        <v>100</v>
+      </c>
+      <c r="P5" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>69.627976190476204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="D6" s="5">
+        <v>65</v>
+      </c>
+      <c r="E6" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F6" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="G6" s="6">
+        <v>81.428571428571402</v>
+      </c>
+      <c r="H6" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="J6" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K6" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="L6" s="7">
+        <v>81.324404761904802</v>
+      </c>
+      <c r="M6" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="N6" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="O6" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P6" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D7" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>33.125</v>
+      </c>
+      <c r="H7" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I7" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J7" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>31.1458333333333</v>
+      </c>
+      <c r="M7" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N7" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O7" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>31.1458333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>51.25</v>
+      </c>
+      <c r="E8" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F8" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="G8" s="6">
+        <v>72.782738095238102</v>
+      </c>
+      <c r="H8" s="5">
+        <v>70.8333333333333</v>
+      </c>
+      <c r="I8" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K8" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="L8" s="7">
+        <v>73.928571428571402</v>
+      </c>
+      <c r="M8" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="N8" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="O8" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P8" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>79.5833333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D9" s="5">
+        <v>60</v>
+      </c>
+      <c r="E9" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F9" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G9" s="6">
+        <v>56.964285714285701</v>
+      </c>
+      <c r="H9" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I9" s="5">
+        <v>51.25</v>
+      </c>
+      <c r="J9" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K9" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L9" s="7">
+        <v>54.776785714285701</v>
+      </c>
+      <c r="M9" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N9" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="O9" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P9" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>56.681547619047599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D10" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="E10" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F10" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G10" s="6">
+        <v>52.872023809523803</v>
+      </c>
+      <c r="H10" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I10" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K10" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L10" s="7">
+        <v>54.642857142857103</v>
+      </c>
+      <c r="M10" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N10" s="5">
+        <v>72.5</v>
+      </c>
+      <c r="O10" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P10" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>64.107142857142904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="5">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5">
+        <v>73.75</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G11" s="6">
+        <v>60.401785714285701</v>
+      </c>
+      <c r="H11" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I11" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="J11" s="5">
+        <v>100</v>
+      </c>
+      <c r="K11" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L11" s="7">
+        <v>58.110119047619001</v>
+      </c>
+      <c r="M11" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N11" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="O11" s="5">
+        <v>75</v>
+      </c>
+      <c r="P11" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>54.494047619047599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D12" s="5">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F12" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G12" s="6">
+        <v>52.559523809523803</v>
+      </c>
+      <c r="H12" s="5">
+        <v>25</v>
+      </c>
+      <c r="I12" s="5">
+        <v>70</v>
+      </c>
+      <c r="J12" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K12" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L12" s="7">
+        <v>53.809523809523803</v>
+      </c>
+      <c r="M12" s="5">
+        <v>25</v>
+      </c>
+      <c r="N12" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="O12" s="5">
+        <v>100</v>
+      </c>
+      <c r="P12" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>58.526785714285701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>75</v>
+      </c>
+      <c r="E13" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F13" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G13" s="6">
+        <v>81.398809523809504</v>
+      </c>
+      <c r="H13" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>75</v>
+      </c>
+      <c r="J13" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K13" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L13" s="7">
+        <v>81.398809523809504</v>
+      </c>
+      <c r="M13" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="N13" s="5">
+        <v>70</v>
+      </c>
+      <c r="O13" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P13" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>88.3333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="D14" s="5">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F14" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G14" s="6">
+        <v>64.226190476190496</v>
+      </c>
+      <c r="H14" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="I14" s="5">
+        <v>65</v>
+      </c>
+      <c r="J14" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K14" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L14" s="7">
+        <v>60.892857142857103</v>
+      </c>
+      <c r="M14" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="N14" s="5">
+        <v>60</v>
+      </c>
+      <c r="O14" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P14" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>69.315476190476204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="D15" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="E15" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F15" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G15" s="6">
+        <v>70.223214285714306</v>
+      </c>
+      <c r="H15" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="I15" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K15" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L15" s="7">
+        <v>70.119047619047606</v>
+      </c>
+      <c r="M15" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="N15" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="O15" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P15" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>79.241071428571402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="D16" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="E16" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F16" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G16" s="6">
+        <v>52.901785714285701</v>
+      </c>
+      <c r="H16" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I16" s="5">
+        <v>60</v>
+      </c>
+      <c r="J16" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K16" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L16" s="7">
+        <v>53.839285714285701</v>
+      </c>
+      <c r="M16" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N16" s="5">
+        <v>60</v>
+      </c>
+      <c r="O16" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P16" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>64.553571428571402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D17" s="5">
+        <v>63.75</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G17" s="6">
+        <v>55.818452380952401</v>
+      </c>
+      <c r="H17" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I17" s="5">
+        <v>63.75</v>
+      </c>
+      <c r="J17" s="5">
+        <v>100</v>
+      </c>
+      <c r="K17" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L17" s="7">
+        <v>55.818452380952401</v>
+      </c>
+      <c r="M17" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="N17" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="O17" s="5">
+        <v>100</v>
+      </c>
+      <c r="P17" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>60.327380952380899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="D18" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="E18" s="5">
+        <v>75</v>
+      </c>
+      <c r="F18" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G18" s="6">
+        <v>66.711309523809504</v>
+      </c>
+      <c r="H18" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="I18" s="5">
+        <v>60</v>
+      </c>
+      <c r="J18" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K18" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L18" s="7">
+        <v>69.315476190476204</v>
+      </c>
+      <c r="M18" s="5">
+        <v>70.8333333333333</v>
+      </c>
+      <c r="N18" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="O18" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P18" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>78.616071428571402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D19" s="5">
+        <v>46.25</v>
+      </c>
+      <c r="E19" s="5">
+        <v>75</v>
+      </c>
+      <c r="F19" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G19" s="6">
+        <v>46.235119047619101</v>
+      </c>
+      <c r="H19" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I19" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="J19" s="5">
+        <v>75</v>
+      </c>
+      <c r="K19" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L19" s="7">
+        <v>47.797619047619101</v>
+      </c>
+      <c r="M19" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N19" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="O19" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P19" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>49.880952380952401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="D20" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F20" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G20" s="6">
+        <v>54.285714285714299</v>
+      </c>
+      <c r="H20" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I20" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J20" s="5">
+        <v>75</v>
+      </c>
+      <c r="K20" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L20" s="7">
+        <v>50.431547619047599</v>
+      </c>
+      <c r="M20" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N20" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="O20" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P20" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>55.491071428571402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D21" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>25.625</v>
+      </c>
+      <c r="H21" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I21" s="5">
+        <v>23.75</v>
+      </c>
+      <c r="J21" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>26.7708333333333</v>
+      </c>
+      <c r="M21" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="N21" s="5">
+        <v>23.75</v>
+      </c>
+      <c r="O21" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P21" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>30.342261904761902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="E22" s="5">
+        <v>100</v>
+      </c>
+      <c r="F22" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G22" s="6">
+        <v>75.044642857142904</v>
+      </c>
+      <c r="H22" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="I22" s="5">
+        <v>70</v>
+      </c>
+      <c r="J22" s="5">
+        <v>100</v>
+      </c>
+      <c r="K22" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L22" s="7">
+        <v>75.982142857142904</v>
+      </c>
+      <c r="M22" s="5">
+        <v>70.8333333333333</v>
+      </c>
+      <c r="N22" s="5">
+        <v>75</v>
+      </c>
+      <c r="O22" s="5">
+        <v>100</v>
+      </c>
+      <c r="P22" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>86.4583333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="D23" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="E23" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F23" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G23" s="6">
+        <v>64.419642857142904</v>
+      </c>
+      <c r="H23" s="5">
+        <v>50</v>
+      </c>
+      <c r="I23" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="J23" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K23" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L23" s="7">
+        <v>63.377976190476197</v>
+      </c>
+      <c r="M23" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="N23" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="O23" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P23" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>62.857142857142897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D24" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>100</v>
+      </c>
+      <c r="F24" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G24" s="6">
+        <v>49.434523809523803</v>
+      </c>
+      <c r="H24" s="5">
+        <v>25</v>
+      </c>
+      <c r="I24" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="J24" s="5">
+        <v>100</v>
+      </c>
+      <c r="K24" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L24" s="7">
+        <v>52.455357142857103</v>
+      </c>
+      <c r="M24" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N24" s="5">
+        <v>60</v>
+      </c>
+      <c r="O24" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P24" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>59.494047619047599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D25" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="E25" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F25" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G25" s="6">
+        <v>49.330357142857103</v>
+      </c>
+      <c r="H25" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I25" s="5">
+        <v>45</v>
+      </c>
+      <c r="J25" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K25" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L25" s="7">
+        <v>49.642857142857103</v>
+      </c>
+      <c r="M25" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N25" s="5">
+        <v>41.25</v>
+      </c>
+      <c r="O25" s="5">
+        <v>75</v>
+      </c>
+      <c r="P25" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>44.538690476190503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D26" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="E26" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>28.0208333333333</v>
+      </c>
+      <c r="H26" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I26" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J26" s="5">
+        <v>75</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>31.9791666666667</v>
+      </c>
+      <c r="M26" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N26" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="O26" s="5">
+        <v>75</v>
+      </c>
+      <c r="P26" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>36.592261904761898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="D27" s="5">
+        <v>45</v>
+      </c>
+      <c r="E27" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>35.2083333333333</v>
+      </c>
+      <c r="H27" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I27" s="5">
+        <v>45</v>
+      </c>
+      <c r="J27" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>33.125</v>
+      </c>
+      <c r="M27" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N27" s="5">
+        <v>45</v>
+      </c>
+      <c r="O27" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P27" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>36.696428571428598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="E28" s="5">
+        <v>100</v>
+      </c>
+      <c r="F28" s="5">
+        <v>100</v>
+      </c>
+      <c r="G28" s="6">
+        <v>84.375</v>
+      </c>
+      <c r="H28" s="5">
+        <v>50</v>
+      </c>
+      <c r="I28" s="5">
+        <v>81.25</v>
+      </c>
+      <c r="J28" s="5">
+        <v>100</v>
+      </c>
+      <c r="K28" s="5">
+        <v>100</v>
+      </c>
+      <c r="L28" s="7">
+        <v>82.8125</v>
+      </c>
+      <c r="M28" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="N28" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="O28" s="5">
+        <v>100</v>
+      </c>
+      <c r="P28" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>83.3333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D29" s="5">
+        <v>23.75</v>
+      </c>
+      <c r="E29" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>25.7291666666667</v>
+      </c>
+      <c r="H29" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I29" s="5">
+        <v>30</v>
+      </c>
+      <c r="J29" s="5">
+        <v>50</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>25.2083333333333</v>
+      </c>
+      <c r="M29" s="5">
+        <v>25</v>
+      </c>
+      <c r="N29" s="5">
+        <v>30</v>
+      </c>
+      <c r="O29" s="5">
+        <v>50</v>
+      </c>
+      <c r="P29" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>33.392857142857103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D30" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>100</v>
+      </c>
+      <c r="F30" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G30" s="6">
+        <v>64.315476190476204</v>
+      </c>
+      <c r="H30" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I30" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="J30" s="5">
+        <v>100</v>
+      </c>
+      <c r="K30" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L30" s="7">
+        <v>63.377976190476197</v>
+      </c>
+      <c r="M30" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N30" s="5">
+        <v>45</v>
+      </c>
+      <c r="O30" s="5">
+        <v>100</v>
+      </c>
+      <c r="P30" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>64.970238095238102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="D31" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="E31" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F31" s="5">
+        <v>100</v>
+      </c>
+      <c r="G31" s="6">
+        <v>75.7291666666667</v>
+      </c>
+      <c r="H31" s="5">
+        <v>70.8333333333333</v>
+      </c>
+      <c r="I31" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="J31" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K31" s="5">
+        <v>100</v>
+      </c>
+      <c r="L31" s="7">
+        <v>78.8541666666667</v>
+      </c>
+      <c r="M31" s="5">
+        <v>70.8333333333333</v>
+      </c>
+      <c r="N31" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="O31" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P31" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>80.1041666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="D32" s="5">
+        <v>40</v>
+      </c>
+      <c r="E32" s="5">
+        <v>75</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>30.8333333333333</v>
+      </c>
+      <c r="H32" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I32" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J32" s="5">
+        <v>75</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>31.9791666666667</v>
+      </c>
+      <c r="M32" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N32" s="5">
+        <v>41.25</v>
+      </c>
+      <c r="O32" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P32" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>43.497023809523803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="D33" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="E33" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>36.25</v>
+      </c>
+      <c r="H33" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="I33" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="J33" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>35.2083333333333</v>
+      </c>
+      <c r="M33" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N33" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="O33" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>35.2083333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="D34" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="E34" s="5">
+        <v>100</v>
+      </c>
+      <c r="F34" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G34" s="6">
+        <v>69.389880952380906</v>
+      </c>
+      <c r="H34" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="I34" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="J34" s="5">
+        <v>100</v>
+      </c>
+      <c r="K34" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L34" s="7">
+        <v>69.389880952380906</v>
+      </c>
+      <c r="M34" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="N34" s="5">
+        <v>65</v>
+      </c>
+      <c r="O34" s="5">
+        <v>100</v>
+      </c>
+      <c r="P34" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>70.565476190476204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="5">
+        <v>25</v>
+      </c>
+      <c r="D35" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="E35" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F35" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G35" s="6">
+        <v>43.779761904761898</v>
+      </c>
+      <c r="H35" s="5">
+        <v>25</v>
+      </c>
+      <c r="I35" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="J35" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K35" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L35" s="7">
+        <v>42.842261904761898</v>
+      </c>
+      <c r="M35" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N35" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="O35" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P35" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>54.598214285714299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5">
+        <v>50</v>
+      </c>
+      <c r="D36" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="E36" s="5">
+        <v>100</v>
+      </c>
+      <c r="F36" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G36" s="6">
+        <v>69.419642857142904</v>
+      </c>
+      <c r="H36" s="5">
+        <v>50</v>
+      </c>
+      <c r="I36" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="J36" s="5">
+        <v>100</v>
+      </c>
+      <c r="K36" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L36" s="7">
+        <v>69.419642857142904</v>
+      </c>
+      <c r="M36" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="N36" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="O36" s="5">
+        <v>100</v>
+      </c>
+      <c r="P36" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>71.949404761904802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="D37" s="5">
+        <v>65</v>
+      </c>
+      <c r="E37" s="5">
+        <v>100</v>
+      </c>
+      <c r="F37" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G37" s="6">
+        <v>75.773809523809504</v>
+      </c>
+      <c r="H37" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="I37" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="J37" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K37" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L37" s="7">
+        <v>72.752976190476204</v>
+      </c>
+      <c r="M37" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="N37" s="5">
+        <v>65</v>
+      </c>
+      <c r="O37" s="5">
+        <v>100</v>
+      </c>
+      <c r="P37" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>79.345238095238102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="E38" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>11.3541666666667</v>
+      </c>
+      <c r="H38" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="I38" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="J38" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>11.3541666666667</v>
+      </c>
+      <c r="M38" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="N38" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="O38" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>11.3541666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D39" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="E39" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F39" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G39" s="6">
+        <v>51.279761904761898</v>
+      </c>
+      <c r="H39" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I39" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="J39" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K39" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L39" s="7">
+        <v>50.446428571428598</v>
+      </c>
+      <c r="M39" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="N39" s="5">
+        <v>81.25</v>
+      </c>
+      <c r="O39" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P39" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>59.598214285714299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D40" s="5">
+        <v>45</v>
+      </c>
+      <c r="E40" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F40" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G40" s="6">
+        <v>48.601190476190503</v>
+      </c>
+      <c r="H40" s="5">
+        <v>50</v>
+      </c>
+      <c r="I40" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="J40" s="5">
+        <v>75</v>
+      </c>
+      <c r="K40" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L40" s="7">
+        <v>50.580357142857103</v>
+      </c>
+      <c r="M40" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="N40" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="O40" s="5">
+        <v>75</v>
+      </c>
+      <c r="P40" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>62.336309523809497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D41" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="E41" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F41" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G41" s="6">
+        <v>36.101190476190503</v>
+      </c>
+      <c r="H41" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I41" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="J41" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="K41" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L41" s="7">
+        <v>34.017857142857103</v>
+      </c>
+      <c r="M41" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="N41" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="O41" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="P41" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>33.422619047619001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D42" s="5">
+        <v>30</v>
+      </c>
+      <c r="E42" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F42" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G42" s="6">
+        <v>32.946428571428598</v>
+      </c>
+      <c r="H42" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I42" s="5">
+        <v>30</v>
+      </c>
+      <c r="J42" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K42" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L42" s="7">
+        <v>32.946428571428598</v>
+      </c>
+      <c r="M42" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N42" s="5">
+        <v>33.75</v>
+      </c>
+      <c r="O42" s="5">
+        <v>75</v>
+      </c>
+      <c r="P42" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>35.967261904761898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="D43" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="E43" s="5">
+        <v>100</v>
+      </c>
+      <c r="F43" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G43" s="6">
+        <v>77.961309523809504</v>
+      </c>
+      <c r="H43" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="I43" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="J43" s="5">
+        <v>100</v>
+      </c>
+      <c r="K43" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L43" s="7">
+        <v>77.961309523809504</v>
+      </c>
+      <c r="M43" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="N43" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="O43" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P43" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>75.877976190476204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="D44" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="E44" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F44" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G44" s="6">
+        <v>57.276785714285701</v>
+      </c>
+      <c r="H44" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I44" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="J44" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K44" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L44" s="7">
+        <v>58.318452380952401</v>
+      </c>
+      <c r="M44" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N44" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="O44" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P44" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>68.095238095238102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="D45" s="5">
+        <v>33.75</v>
+      </c>
+      <c r="E45" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F45" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G45" s="6">
+        <v>34.925595238095198</v>
+      </c>
+      <c r="H45" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="I45" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="J45" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K45" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L45" s="7">
+        <v>35.863095238095198</v>
+      </c>
+      <c r="M45" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="N45" s="5">
+        <v>33.75</v>
+      </c>
+      <c r="O45" s="5">
+        <v>75</v>
+      </c>
+      <c r="P45" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>47.127976190476197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="5">
+        <v>25</v>
+      </c>
+      <c r="D46" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="E46" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F46" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G46" s="6">
+        <v>48.050595238095198</v>
+      </c>
+      <c r="H46" s="5">
+        <v>25</v>
+      </c>
+      <c r="I46" s="5">
+        <v>53.75</v>
+      </c>
+      <c r="J46" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K46" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L46" s="7">
+        <v>44.092261904761898</v>
+      </c>
+      <c r="M46" s="5">
+        <v>25</v>
+      </c>
+      <c r="N46" s="5">
+        <v>53.75</v>
+      </c>
+      <c r="O46" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P46" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>51.235119047619101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="D47" s="5">
+        <v>45</v>
+      </c>
+      <c r="E47" s="5">
+        <v>75</v>
+      </c>
+      <c r="F47" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G47" s="6">
+        <v>36.696428571428598</v>
+      </c>
+      <c r="H47" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I47" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J47" s="5">
+        <v>75</v>
+      </c>
+      <c r="K47" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L47" s="7">
+        <v>36.592261904761898</v>
+      </c>
+      <c r="M47" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N47" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="O47" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P47" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>38.080357142857103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D48" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="E48" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>28.0208333333333</v>
+      </c>
+      <c r="H48" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I48" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J48" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7">
+        <v>29.0625</v>
+      </c>
+      <c r="M48" s="5">
+        <v>25</v>
+      </c>
+      <c r="N48" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O48" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="P48" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>31.592261904761902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D49" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="E49" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>32.1875</v>
+      </c>
+      <c r="H49" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I49" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J49" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7">
+        <v>31.1458333333333</v>
+      </c>
+      <c r="M49" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N49" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O49" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P49" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>35.758928571428598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D50" s="5">
+        <v>63.75</v>
+      </c>
+      <c r="E50" s="5">
+        <v>100</v>
+      </c>
+      <c r="F50" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G50" s="6">
+        <v>56.413690476190503</v>
+      </c>
+      <c r="H50" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I50" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="J50" s="5">
+        <v>100</v>
+      </c>
+      <c r="K50" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L50" s="7">
+        <v>52.663690476190503</v>
+      </c>
+      <c r="M50" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N50" s="5">
+        <v>55</v>
+      </c>
+      <c r="O50" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P50" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>53.630952380952401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D51" s="5">
+        <v>41.25</v>
+      </c>
+      <c r="E51" s="5">
+        <v>75</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>37.3958333333333</v>
+      </c>
+      <c r="H51" s="5">
+        <v>25</v>
+      </c>
+      <c r="I51" s="5">
+        <v>41.25</v>
+      </c>
+      <c r="J51" s="5">
+        <v>75</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <v>35.3125</v>
+      </c>
+      <c r="M51" s="5">
+        <v>25</v>
+      </c>
+      <c r="N51" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="O51" s="5">
+        <v>75</v>
+      </c>
+      <c r="P51" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>41.205357142857103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D52" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="E52" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F52" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G52" s="6">
+        <v>60.059523809523803</v>
+      </c>
+      <c r="H52" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I52" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="J52" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K52" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L52" s="7">
+        <v>59.122023809523803</v>
+      </c>
+      <c r="M52" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N52" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="O52" s="5">
+        <v>100</v>
+      </c>
+      <c r="P52" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>71.607142857142904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="D53" s="5">
+        <v>75</v>
+      </c>
+      <c r="E53" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F53" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="G53" s="6">
+        <v>82.886904761904802</v>
+      </c>
+      <c r="H53" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="I53" s="5">
+        <v>75</v>
+      </c>
+      <c r="J53" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K53" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="L53" s="7">
+        <v>82.886904761904802</v>
+      </c>
+      <c r="M53" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="N53" s="5">
+        <v>75</v>
+      </c>
+      <c r="O53" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P53" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>83.928571428571402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D54" s="5">
+        <v>30</v>
+      </c>
+      <c r="E54" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="F54" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G54" s="6">
+        <v>30.863095238095202</v>
+      </c>
+      <c r="H54" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I54" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J54" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="K54" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L54" s="7">
+        <v>32.425595238095198</v>
+      </c>
+      <c r="M54" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N54" s="5">
+        <v>45</v>
+      </c>
+      <c r="O54" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="P54" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>41.755952380952401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="D55" s="5">
+        <v>75</v>
+      </c>
+      <c r="E55" s="5">
+        <v>100</v>
+      </c>
+      <c r="F55" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G55" s="6">
+        <v>75.148809523809504</v>
+      </c>
+      <c r="H55" s="5">
+        <v>50</v>
+      </c>
+      <c r="I55" s="5">
+        <v>75</v>
+      </c>
+      <c r="J55" s="5">
+        <v>100</v>
+      </c>
+      <c r="K55" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L55" s="7">
+        <v>74.107142857142904</v>
+      </c>
+      <c r="M55" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="N55" s="5">
+        <v>75</v>
+      </c>
+      <c r="O55" s="5">
+        <v>100</v>
+      </c>
+      <c r="P55" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>82.2916666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="5">
+        <v>50</v>
+      </c>
+      <c r="D56" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="E56" s="5">
+        <v>75</v>
+      </c>
+      <c r="F56" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G56" s="6">
+        <v>65.223214285714306</v>
+      </c>
+      <c r="H56" s="5">
+        <v>50</v>
+      </c>
+      <c r="I56" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="J56" s="5">
+        <v>75</v>
+      </c>
+      <c r="K56" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L56" s="7">
+        <v>65.223214285714306</v>
+      </c>
+      <c r="M56" s="5">
+        <v>50</v>
+      </c>
+      <c r="N56" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="O56" s="5">
+        <v>75</v>
+      </c>
+      <c r="P56" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>72.366071428571402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D57" s="5">
+        <v>50</v>
+      </c>
+      <c r="E57" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F57" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G57" s="6">
+        <v>49.851190476190503</v>
+      </c>
+      <c r="H57" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I57" s="5">
+        <v>50</v>
+      </c>
+      <c r="J57" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K57" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L57" s="7">
+        <v>49.851190476190503</v>
+      </c>
+      <c r="M57" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N57" s="5">
+        <v>50</v>
+      </c>
+      <c r="O57" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P57" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>54.464285714285701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D58" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="E58" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>42.3958333333333</v>
+      </c>
+      <c r="H58" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I58" s="5">
+        <v>45</v>
+      </c>
+      <c r="J58" s="5">
+        <v>75</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="L58" s="7">
+        <v>39.375</v>
+      </c>
+      <c r="M58" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N58" s="5">
+        <v>40</v>
+      </c>
+      <c r="O58" s="5">
+        <v>75</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>36.0416666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="D59" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="E59" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F59" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G59" s="6">
+        <v>59.910714285714299</v>
+      </c>
+      <c r="H59" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I59" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="J59" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K59" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L59" s="7">
+        <v>57.827380952380899</v>
+      </c>
+      <c r="M59" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N59" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="O59" s="5">
+        <v>75</v>
+      </c>
+      <c r="P59" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>57.023809523809497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="5">
+        <v>25</v>
+      </c>
+      <c r="D60" s="5">
+        <v>70</v>
+      </c>
+      <c r="E60" s="5">
+        <v>75</v>
+      </c>
+      <c r="F60" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G60" s="6">
+        <v>56.785714285714299</v>
+      </c>
+      <c r="H60" s="5">
+        <v>25</v>
+      </c>
+      <c r="I60" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="J60" s="5">
+        <v>75</v>
+      </c>
+      <c r="K60" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L60" s="7">
+        <v>55.848214285714299</v>
+      </c>
+      <c r="M60" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N60" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="O60" s="5">
+        <v>75</v>
+      </c>
+      <c r="P60" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>57.127976190476197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="5">
+        <v>75</v>
+      </c>
+      <c r="D61" s="5">
+        <v>70</v>
+      </c>
+      <c r="E61" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F61" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G61" s="6">
+        <v>73.452380952380906</v>
+      </c>
+      <c r="H61" s="5">
+        <v>75</v>
+      </c>
+      <c r="I61" s="5">
+        <v>70</v>
+      </c>
+      <c r="J61" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K61" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L61" s="7">
+        <v>73.452380952380906</v>
+      </c>
+      <c r="M61" s="5">
+        <v>75</v>
+      </c>
+      <c r="N61" s="5">
+        <v>63.75</v>
+      </c>
+      <c r="O61" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P61" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>75.461309523809504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="D62" s="5">
+        <v>65</v>
+      </c>
+      <c r="E62" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F62" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G62" s="6">
+        <v>53.154761904761898</v>
+      </c>
+      <c r="H62" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I62" s="5">
+        <v>65</v>
+      </c>
+      <c r="J62" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K62" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L62" s="7">
+        <v>52.113095238095198</v>
+      </c>
+      <c r="M62" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N62" s="5">
+        <v>65</v>
+      </c>
+      <c r="O62" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P62" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>60.744047619047599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="D63" s="5">
+        <v>46.25</v>
+      </c>
+      <c r="E63" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F63" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G63" s="6">
+        <v>67.068452380952394</v>
+      </c>
+      <c r="H63" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="I63" s="5">
+        <v>46.25</v>
+      </c>
+      <c r="J63" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K63" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L63" s="7">
+        <v>70.639880952380906</v>
+      </c>
+      <c r="M63" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="N63" s="5">
+        <v>46.25</v>
+      </c>
+      <c r="O63" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P63" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>74.211309523809504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D64" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="E64" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F64" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G64" s="6">
+        <v>63.630952380952401</v>
+      </c>
+      <c r="H64" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I64" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="J64" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K64" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L64" s="7">
+        <v>63.630952380952401</v>
+      </c>
+      <c r="M64" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N64" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="O64" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P64" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>67.202380952380906</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D65" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="E65" s="5">
+        <v>75</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
+        <v>32.0833333333333</v>
+      </c>
+      <c r="H65" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I65" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J65" s="5">
+        <v>75</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7">
+        <v>30.1041666666667</v>
+      </c>
+      <c r="M65" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="N65" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O65" s="5">
+        <v>75</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>30.1041666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D66" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="E66" s="5">
+        <v>50</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <v>28.0208333333333</v>
+      </c>
+      <c r="H66" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I66" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J66" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0</v>
+      </c>
+      <c r="L66" s="7">
+        <v>24.8958333333333</v>
+      </c>
+      <c r="M66" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N66" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O66" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>24.8958333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="D67" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="E67" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F67" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G67" s="6">
+        <v>43.363095238095198</v>
+      </c>
+      <c r="H67" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I67" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="J67" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K67" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L67" s="7">
+        <v>44.196428571428598</v>
+      </c>
+      <c r="M67" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N67" s="5">
+        <v>71.25</v>
+      </c>
+      <c r="O67" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P67" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>63.794642857142797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="5">
+        <v>25</v>
+      </c>
+      <c r="D68" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="E68" s="5">
+        <v>75</v>
+      </c>
+      <c r="F68" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G68" s="6">
+        <v>42.633928571428598</v>
+      </c>
+      <c r="H68" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I68" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="J68" s="5">
+        <v>75</v>
+      </c>
+      <c r="K68" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L68" s="7">
+        <v>41.488095238095198</v>
+      </c>
+      <c r="M68" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N68" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="O68" s="5">
+        <v>75</v>
+      </c>
+      <c r="P68" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>47.693452380952401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="5">
+        <v>25</v>
+      </c>
+      <c r="D69" s="5">
+        <v>73.75</v>
+      </c>
+      <c r="E69" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <v>47.6041666666667</v>
+      </c>
+      <c r="H69" s="5">
+        <v>25</v>
+      </c>
+      <c r="I69" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="J69" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0</v>
+      </c>
+      <c r="L69" s="7">
+        <v>46.3541666666667</v>
+      </c>
+      <c r="M69" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N69" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="O69" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P69" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>52.455357142857103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D70" s="5">
+        <v>25</v>
+      </c>
+      <c r="E70" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <v>21.875</v>
+      </c>
+      <c r="H70" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I70" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="J70" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0</v>
+      </c>
+      <c r="L70" s="7">
+        <v>18.75</v>
+      </c>
+      <c r="M70" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N70" s="5">
+        <v>18.75</v>
+      </c>
+      <c r="O70" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>20.3125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D71" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="E71" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F71" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G71" s="6">
+        <v>44.330357142857103</v>
+      </c>
+      <c r="H71" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I71" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="J71" s="5">
+        <v>75</v>
+      </c>
+      <c r="K71" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L71" s="7">
+        <v>45.372023809523803</v>
+      </c>
+      <c r="M71" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N71" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="O71" s="5">
+        <v>75</v>
+      </c>
+      <c r="P71" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>49.985119047619001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="D72" s="5">
+        <v>76.25</v>
+      </c>
+      <c r="E72" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F72" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G72" s="6">
+        <v>69.211309523809504</v>
+      </c>
+      <c r="H72" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="I72" s="5">
+        <v>72.5</v>
+      </c>
+      <c r="J72" s="5">
+        <v>100</v>
+      </c>
+      <c r="K72" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L72" s="7">
+        <v>74.523809523809504</v>
+      </c>
+      <c r="M72" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="N72" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="O72" s="5">
+        <v>100</v>
+      </c>
+      <c r="P72" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>77.157738095238102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D73" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="E73" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F73" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G73" s="6">
+        <v>57.767857142857103</v>
+      </c>
+      <c r="H73" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I73" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="J73" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K73" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L73" s="7">
+        <v>57.976190476190503</v>
+      </c>
+      <c r="M73" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N73" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="O73" s="5">
+        <v>75</v>
+      </c>
+      <c r="P73" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>65.669642857142904</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D74" s="5">
+        <v>63.75</v>
+      </c>
+      <c r="E74" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F74" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G74" s="6">
+        <v>61.473214285714299</v>
+      </c>
+      <c r="H74" s="5">
+        <v>50</v>
+      </c>
+      <c r="I74" s="5">
+        <v>55</v>
+      </c>
+      <c r="J74" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K74" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L74" s="7">
+        <v>61.369047619047599</v>
+      </c>
+      <c r="M74" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="N74" s="5">
+        <v>50</v>
+      </c>
+      <c r="O74" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P74" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>59.077380952380999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="D75" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="E75" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F75" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G75" s="6">
+        <v>70.119047619047606</v>
+      </c>
+      <c r="H75" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="I75" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="J75" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K75" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L75" s="7">
+        <v>70.119047619047606</v>
+      </c>
+      <c r="M75" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="N75" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="O75" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P75" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>80.8333333333333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="D76" s="5">
+        <v>40</v>
+      </c>
+      <c r="E76" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <v>33.9583333333333</v>
+      </c>
+      <c r="H76" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I76" s="5">
+        <v>35</v>
+      </c>
+      <c r="J76" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K76" s="5">
+        <v>0</v>
+      </c>
+      <c r="L76" s="7">
+        <v>32.7083333333333</v>
+      </c>
+      <c r="M76" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N76" s="5">
+        <v>26.25</v>
+      </c>
+      <c r="O76" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P76" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>41.235119047619001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="D77" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="E77" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="6">
+        <v>42.1875</v>
+      </c>
+      <c r="H77" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="I77" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="J77" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K77" s="5">
+        <v>0</v>
+      </c>
+      <c r="L77" s="7">
+        <v>45.5208333333333</v>
+      </c>
+      <c r="M77" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="N77" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="O77" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P77" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>51.622023809523803</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="D78" s="5">
+        <v>86.25</v>
+      </c>
+      <c r="E78" s="5">
+        <v>100</v>
+      </c>
+      <c r="F78" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="G78" s="6">
+        <v>82.574404761904802</v>
+      </c>
+      <c r="H78" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="I78" s="5">
+        <v>86.25</v>
+      </c>
+      <c r="J78" s="5">
+        <v>100</v>
+      </c>
+      <c r="K78" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="L78" s="7">
+        <v>87.782738095238102</v>
+      </c>
+      <c r="M78" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="N78" s="5">
+        <v>85</v>
+      </c>
+      <c r="O78" s="5">
+        <v>100</v>
+      </c>
+      <c r="P78" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>91.0416666666667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="5">
+        <v>4.1666666666666696</v>
+      </c>
+      <c r="D79" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="E79" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
+        <v>22.8125</v>
+      </c>
+      <c r="H79" s="5">
+        <v>4.1666666666666696</v>
+      </c>
+      <c r="I79" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J79" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0</v>
+      </c>
+      <c r="L79" s="7">
+        <v>24.8958333333333</v>
+      </c>
+      <c r="M79" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="N79" s="5">
+        <v>25</v>
+      </c>
+      <c r="O79" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P79" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="D80" s="5">
+        <v>58.75</v>
+      </c>
+      <c r="E80" s="5">
+        <v>100</v>
+      </c>
+      <c r="F80" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G80" s="6">
+        <v>71.086309523809504</v>
+      </c>
+      <c r="H80" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="I80" s="5">
+        <v>58.75</v>
+      </c>
+      <c r="J80" s="5">
+        <v>100</v>
+      </c>
+      <c r="K80" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L80" s="7">
+        <v>74.211309523809504</v>
+      </c>
+      <c r="M80" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="N80" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="O80" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P80" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>73.199404761904802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D81" s="5">
+        <v>70</v>
+      </c>
+      <c r="E81" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F81" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G81" s="6">
+        <v>46.071428571428598</v>
+      </c>
+      <c r="H81" s="5">
+        <v>25</v>
+      </c>
+      <c r="I81" s="5">
+        <v>75</v>
+      </c>
+      <c r="J81" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K81" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L81" s="7">
+        <v>49.404761904761898</v>
+      </c>
+      <c r="M81" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N81" s="5">
+        <v>70</v>
+      </c>
+      <c r="O81" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P81" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>63.482142857142897</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="D82" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="E82" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F82" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G82" s="6">
+        <v>54.985119047619001</v>
+      </c>
+      <c r="H82" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I82" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="J82" s="5">
+        <v>100</v>
+      </c>
+      <c r="K82" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L82" s="7">
+        <v>58.110119047619001</v>
+      </c>
+      <c r="M82" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N82" s="5">
+        <v>70</v>
+      </c>
+      <c r="O82" s="5">
+        <v>100</v>
+      </c>
+      <c r="P82" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>65.119047619047606</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D83" s="5">
+        <v>65</v>
+      </c>
+      <c r="E83" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F83" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G83" s="6">
+        <v>66.398809523809504</v>
+      </c>
+      <c r="H83" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I83" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="J83" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K83" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L83" s="7">
+        <v>65.461309523809504</v>
+      </c>
+      <c r="M83" s="5">
+        <v>50</v>
+      </c>
+      <c r="N83" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="O83" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P83" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>68.586309523809504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="5">
+        <v>50</v>
+      </c>
+      <c r="D84" s="5">
+        <v>65</v>
+      </c>
+      <c r="E84" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F84" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G84" s="6">
+        <v>69.523809523809504</v>
+      </c>
+      <c r="H84" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="I84" s="5">
+        <v>65</v>
+      </c>
+      <c r="J84" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K84" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L84" s="7">
+        <v>72.648809523809504</v>
+      </c>
+      <c r="M84" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="N84" s="5">
+        <v>65</v>
+      </c>
+      <c r="O84" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P84" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>71.607142857142804</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D85" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="E85" s="5">
+        <v>100</v>
+      </c>
+      <c r="F85" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G85" s="6">
+        <v>54.985119047619001</v>
+      </c>
+      <c r="H85" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I85" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="J85" s="5">
+        <v>100</v>
+      </c>
+      <c r="K85" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L85" s="7">
+        <v>54.985119047619001</v>
+      </c>
+      <c r="M85" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N85" s="5">
+        <v>40</v>
+      </c>
+      <c r="O85" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P85" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>62.678571428571402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="D86" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="E86" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6">
+        <v>42.1875</v>
+      </c>
+      <c r="H86" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I86" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="J86" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0</v>
+      </c>
+      <c r="L86" s="7">
+        <v>41.25</v>
+      </c>
+      <c r="M86" s="5">
+        <v>25</v>
+      </c>
+      <c r="N86" s="5">
+        <v>51.25</v>
+      </c>
+      <c r="O86" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P86" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>50.014880952380899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="5">
+        <v>75</v>
+      </c>
+      <c r="D87" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="E87" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F87" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G87" s="6">
+        <v>72.514880952380906</v>
+      </c>
+      <c r="H87" s="5">
+        <v>70.8333333333333</v>
+      </c>
+      <c r="I87" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="J87" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K87" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L87" s="7">
+        <v>71.473214285714306</v>
+      </c>
+      <c r="M87" s="5">
+        <v>75</v>
+      </c>
+      <c r="N87" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="O87" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P87" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q87" s="8">
+        <v>76.086309523809504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D88" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="E88" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F88" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G88" s="6">
+        <v>51.830357142857103</v>
+      </c>
+      <c r="H88" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I88" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="J88" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K88" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L88" s="7">
+        <v>51.830357142857103</v>
+      </c>
+      <c r="M88" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N88" s="5">
+        <v>60</v>
+      </c>
+      <c r="O88" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P88" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q88" s="8">
+        <v>57.410714285714299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="D89" s="5">
+        <v>53.75</v>
+      </c>
+      <c r="E89" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F89" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G89" s="6">
+        <v>64.181547619047606</v>
+      </c>
+      <c r="H89" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="I89" s="5">
+        <v>70</v>
+      </c>
+      <c r="J89" s="5">
+        <v>100</v>
+      </c>
+      <c r="K89" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L89" s="7">
+        <v>70.327380952380906</v>
+      </c>
+      <c r="M89" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="N89" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="O89" s="5">
+        <v>100</v>
+      </c>
+      <c r="P89" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>81.1458333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="D90" s="5">
+        <v>70</v>
+      </c>
+      <c r="E90" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F90" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G90" s="6">
+        <v>58.422619047619001</v>
+      </c>
+      <c r="H90" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I90" s="5">
+        <v>65</v>
+      </c>
+      <c r="J90" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K90" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L90" s="7">
+        <v>55.089285714285701</v>
+      </c>
+      <c r="M90" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N90" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="O90" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P90" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q90" s="8">
+        <v>63.377976190476197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="5">
+        <v>25</v>
+      </c>
+      <c r="D91" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="E91" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F91" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G91" s="6">
+        <v>56.443452380952401</v>
+      </c>
+      <c r="H91" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I91" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="J91" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K91" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L91" s="7">
+        <v>56.235119047619001</v>
+      </c>
+      <c r="M91" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N91" s="5">
+        <v>60</v>
+      </c>
+      <c r="O91" s="5">
+        <v>75</v>
+      </c>
+      <c r="P91" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q91" s="8">
+        <v>62.470238095238102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D92" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="E92" s="5">
+        <v>75</v>
+      </c>
+      <c r="F92" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G92" s="6">
+        <v>56.473214285714299</v>
+      </c>
+      <c r="H92" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I92" s="5">
+        <v>45</v>
+      </c>
+      <c r="J92" s="5">
+        <v>75</v>
+      </c>
+      <c r="K92" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L92" s="7">
+        <v>53.660714285714299</v>
+      </c>
+      <c r="M92" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N92" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="O92" s="5">
+        <v>75</v>
+      </c>
+      <c r="P92" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q92" s="8">
+        <v>57.857142857142897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="D93" s="5">
+        <v>53.75</v>
+      </c>
+      <c r="E93" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F93" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G93" s="6">
+        <v>45.133928571428598</v>
+      </c>
+      <c r="H93" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I93" s="5">
+        <v>50</v>
+      </c>
+      <c r="J93" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K93" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L93" s="7">
+        <v>45.238095238095198</v>
+      </c>
+      <c r="M93" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N93" s="5">
+        <v>60</v>
+      </c>
+      <c r="O93" s="5">
+        <v>75</v>
+      </c>
+      <c r="P93" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q93" s="8">
+        <v>48.184523809523803</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" s="5">
+        <v>25</v>
+      </c>
+      <c r="D94" s="5">
+        <v>70</v>
+      </c>
+      <c r="E94" s="5">
+        <v>75</v>
+      </c>
+      <c r="F94" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G94" s="6">
+        <v>53.214285714285701</v>
+      </c>
+      <c r="H94" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I94" s="5">
+        <v>75</v>
+      </c>
+      <c r="J94" s="5">
+        <v>75</v>
+      </c>
+      <c r="K94" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L94" s="7">
+        <v>53.422619047619101</v>
+      </c>
+      <c r="M94" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N94" s="5">
+        <v>75</v>
+      </c>
+      <c r="O94" s="5">
+        <v>75</v>
+      </c>
+      <c r="P94" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q94" s="8">
+        <v>53.422619047619101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="D95" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="E95" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="6">
+        <v>24.7916666666667</v>
+      </c>
+      <c r="H95" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I95" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J95" s="5">
+        <v>50</v>
+      </c>
+      <c r="K95" s="5">
+        <v>0</v>
+      </c>
+      <c r="L95" s="7">
+        <v>23.8541666666667</v>
+      </c>
+      <c r="M95" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="N95" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O95" s="5">
+        <v>50</v>
+      </c>
+      <c r="P95" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="8">
+        <v>22.8125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D96" s="5">
+        <v>63.75</v>
+      </c>
+      <c r="E96" s="5">
+        <v>100</v>
+      </c>
+      <c r="F96" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G96" s="6">
+        <v>56.413690476190503</v>
+      </c>
+      <c r="H96" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="I96" s="5">
+        <v>70</v>
+      </c>
+      <c r="J96" s="5">
+        <v>100</v>
+      </c>
+      <c r="K96" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L96" s="7">
+        <v>56.934523809523803</v>
+      </c>
+      <c r="M96" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N96" s="5">
+        <v>66.25</v>
+      </c>
+      <c r="O96" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P96" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q96" s="8">
+        <v>58.526785714285701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="5">
+        <v>25</v>
+      </c>
+      <c r="D97" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="E97" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F97" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G97" s="6">
+        <v>55.193452380952401</v>
+      </c>
+      <c r="H97" s="5">
+        <v>25</v>
+      </c>
+      <c r="I97" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="J97" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K97" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L97" s="7">
+        <v>54.255952380952401</v>
+      </c>
+      <c r="M97" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N97" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="O97" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P97" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q97" s="8">
+        <v>56.785714285714299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D98" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="E98" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F98" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G98" s="6">
+        <v>64.910714285714306</v>
+      </c>
+      <c r="H98" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I98" s="5">
+        <v>73.75</v>
+      </c>
+      <c r="J98" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K98" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L98" s="7">
+        <v>63.973214285714299</v>
+      </c>
+      <c r="M98" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N98" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="O98" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P98" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q98" s="8">
+        <v>70.565476190476204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="D99" s="5">
+        <v>90</v>
+      </c>
+      <c r="E99" s="5">
+        <v>100</v>
+      </c>
+      <c r="F99" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G99" s="6">
+        <v>76.815476190476204</v>
+      </c>
+      <c r="H99" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="I99" s="5">
+        <v>95</v>
+      </c>
+      <c r="J99" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K99" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L99" s="7">
+        <v>74.940476190476204</v>
+      </c>
+      <c r="M99" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="N99" s="5">
+        <v>100</v>
+      </c>
+      <c r="O99" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P99" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q99" s="8">
+        <v>77.232142857142804</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" s="5">
+        <v>25</v>
+      </c>
+      <c r="D100" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="E100" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0</v>
+      </c>
+      <c r="G100" s="6">
+        <v>35.2083333333333</v>
+      </c>
+      <c r="H100" s="5">
+        <v>25</v>
+      </c>
+      <c r="I100" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J100" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K100" s="5">
+        <v>0</v>
+      </c>
+      <c r="L100" s="7">
+        <v>34.2708333333333</v>
+      </c>
+      <c r="M100" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="N100" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O100" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="8">
+        <v>31.1458333333333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C101" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D101" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="E101" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="F101" s="5">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6">
+        <v>26.875</v>
+      </c>
+      <c r="H101" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I101" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J101" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="K101" s="5">
+        <v>0</v>
+      </c>
+      <c r="L101" s="7">
+        <v>27.8125</v>
+      </c>
+      <c r="M101" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N101" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="O101" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="P101" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q101" s="8">
+        <v>32.425595238095198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="D102" s="5">
+        <v>65</v>
+      </c>
+      <c r="E102" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F102" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G102" s="6">
+        <v>79.940476190476204</v>
+      </c>
+      <c r="H102" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="I102" s="5">
+        <v>70</v>
+      </c>
+      <c r="J102" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K102" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L102" s="7">
+        <v>81.190476190476204</v>
+      </c>
+      <c r="M102" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="N102" s="5">
+        <v>65</v>
+      </c>
+      <c r="O102" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P102" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="8">
+        <v>87.0833333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="D103" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="E103" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F103" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G103" s="6">
+        <v>50.133928571428598</v>
+      </c>
+      <c r="H103" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I103" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="J103" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K103" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L103" s="7">
+        <v>49.092261904761898</v>
+      </c>
+      <c r="M103" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N103" s="5">
+        <v>65</v>
+      </c>
+      <c r="O103" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P103" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q103" s="8">
+        <v>60.744047619047599</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="D104" s="5">
+        <v>81.25</v>
+      </c>
+      <c r="E104" s="5">
+        <v>75</v>
+      </c>
+      <c r="F104" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G104" s="6">
+        <v>59.747023809523803</v>
+      </c>
+      <c r="H104" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="I104" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="J104" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K104" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L104" s="7">
+        <v>60.892857142857103</v>
+      </c>
+      <c r="M104" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="N104" s="5">
+        <v>71.25</v>
+      </c>
+      <c r="O104" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P104" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>74.657738095238102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="D105" s="5">
+        <v>65</v>
+      </c>
+      <c r="E105" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F105" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="G105" s="6">
+        <v>77.261904761904702</v>
+      </c>
+      <c r="H105" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="I105" s="5">
+        <v>70</v>
+      </c>
+      <c r="J105" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K105" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="L105" s="7">
+        <v>78.511904761904802</v>
+      </c>
+      <c r="M105" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="N105" s="5">
+        <v>65</v>
+      </c>
+      <c r="O105" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P105" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>80.386904761904702</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="D106" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="E106" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F106" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G106" s="6">
+        <v>67.797619047618994</v>
+      </c>
+      <c r="H106" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="I106" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="J106" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K106" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L106" s="7">
+        <v>68.839285714285694</v>
+      </c>
+      <c r="M106" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="N106" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="O106" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P106" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>72.410714285714306</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D107" s="5">
+        <v>81.25</v>
+      </c>
+      <c r="E107" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F107" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G107" s="6">
+        <v>70.461309523809504</v>
+      </c>
+      <c r="H107" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="I107" s="5">
+        <v>86.25</v>
+      </c>
+      <c r="J107" s="5">
+        <v>100</v>
+      </c>
+      <c r="K107" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L107" s="7">
+        <v>75.877976190476204</v>
+      </c>
+      <c r="M107" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N107" s="5">
+        <v>86.25</v>
+      </c>
+      <c r="O107" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P107" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>79.8958333333333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D108" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="E108" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108" s="6">
+        <v>33.9583333333333</v>
+      </c>
+      <c r="H108" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I108" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="J108" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K108" s="5">
+        <v>0</v>
+      </c>
+      <c r="L108" s="7">
+        <v>33.9583333333333</v>
+      </c>
+      <c r="M108" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="N108" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="O108" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P108" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q108" s="8">
+        <v>44.672619047619001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="D109" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="E109" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F109" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G109" s="6">
+        <v>62.127976190476197</v>
+      </c>
+      <c r="H109" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="I109" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="J109" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K109" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L109" s="7">
+        <v>63.169642857142897</v>
+      </c>
+      <c r="M109" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N109" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="O109" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P109" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q109" s="8">
+        <v>67.886904761904802</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" s="5">
+        <v>25</v>
+      </c>
+      <c r="D110" s="5">
+        <v>40</v>
+      </c>
+      <c r="E110" s="5">
+        <v>75</v>
+      </c>
+      <c r="F110" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G110" s="6">
+        <v>38.571428571428598</v>
+      </c>
+      <c r="H110" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I110" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J110" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="K110" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L110" s="7">
+        <v>32.425595238095198</v>
+      </c>
+      <c r="M110" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N110" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="O110" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="P110" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>38.630952380952401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" s="5">
+        <v>25</v>
+      </c>
+      <c r="D111" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="E111" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F111" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G111" s="6">
+        <v>44.925595238095198</v>
+      </c>
+      <c r="H111" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I111" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="J111" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K111" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L111" s="7">
+        <v>41.800595238095198</v>
+      </c>
+      <c r="M111" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="N111" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="O111" s="5">
+        <v>75</v>
+      </c>
+      <c r="P111" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>40.654761904761898</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="5">
+        <v>50</v>
+      </c>
+      <c r="D112" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="E112" s="5">
+        <v>100</v>
+      </c>
+      <c r="F112" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G112" s="6">
+        <v>56.830357142857103</v>
+      </c>
+      <c r="H112" s="5">
+        <v>50</v>
+      </c>
+      <c r="I112" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="J112" s="5">
+        <v>100</v>
+      </c>
+      <c r="K112" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L112" s="7">
+        <v>56.830357142857103</v>
+      </c>
+      <c r="M112" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="N112" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="O112" s="5">
+        <v>100</v>
+      </c>
+      <c r="P112" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q112" s="8">
+        <v>58.913690476190503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0</v>
+      </c>
+      <c r="D113" s="5">
+        <v>13.75</v>
+      </c>
+      <c r="E113" s="5">
+        <v>25</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113" s="6">
+        <v>9.6875</v>
+      </c>
+      <c r="H113" s="5">
+        <v>0</v>
+      </c>
+      <c r="I113" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="J113" s="5">
+        <v>25</v>
+      </c>
+      <c r="K113" s="5">
+        <v>0</v>
+      </c>
+      <c r="L113" s="7">
+        <v>7.1875</v>
+      </c>
+      <c r="M113" s="5">
+        <v>0</v>
+      </c>
+      <c r="N113" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="O113" s="5">
+        <v>25</v>
+      </c>
+      <c r="P113" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q113" s="8">
+        <v>10.7589285714286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="D114" s="5">
+        <v>70</v>
+      </c>
+      <c r="E114" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F114" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="G114" s="6">
+        <v>76.428571428571402</v>
+      </c>
+      <c r="H114" s="5">
+        <v>75</v>
+      </c>
+      <c r="I114" s="5">
+        <v>65</v>
+      </c>
+      <c r="J114" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K114" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="L114" s="7">
+        <v>79.345238095238102</v>
+      </c>
+      <c r="M114" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="N114" s="5">
+        <v>65</v>
+      </c>
+      <c r="O114" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P114" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q114" s="8">
+        <v>80.386904761904702</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C115" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D115" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="E115" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115" s="6">
+        <v>30.9375</v>
+      </c>
+      <c r="H115" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="I115" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J115" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K115" s="5">
+        <v>0</v>
+      </c>
+      <c r="L115" s="7">
+        <v>30.9375</v>
+      </c>
+      <c r="M115" s="5">
+        <v>25</v>
+      </c>
+      <c r="N115" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="O115" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P115" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="8">
+        <v>31.9791666666667</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116" s="5">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="D116" s="5">
+        <v>41.25</v>
+      </c>
+      <c r="E116" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F116" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G116" s="6">
+        <v>37.842261904761898</v>
+      </c>
+      <c r="H116" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I116" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J116" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K116" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L116" s="7">
+        <v>37.633928571428598</v>
+      </c>
+      <c r="M116" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N116" s="5">
+        <v>40</v>
+      </c>
+      <c r="O116" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P116" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q116" s="8">
+        <v>51.369047619047599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" s="5">
+        <v>50</v>
+      </c>
+      <c r="D117" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="E117" s="5">
+        <v>75</v>
+      </c>
+      <c r="F117" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G117" s="6">
+        <v>50.267857142857103</v>
+      </c>
+      <c r="H117" s="5">
+        <v>50</v>
+      </c>
+      <c r="I117" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="J117" s="5">
+        <v>75</v>
+      </c>
+      <c r="K117" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L117" s="7">
+        <v>49.330357142857103</v>
+      </c>
+      <c r="M117" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="N117" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="O117" s="5">
+        <v>75</v>
+      </c>
+      <c r="P117" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q117" s="8">
+        <v>53.110119047619001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D118" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="E118" s="5">
+        <v>75</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118" s="6">
+        <v>36.1458333333333</v>
+      </c>
+      <c r="H118" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I118" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J118" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K118" s="5">
+        <v>0</v>
+      </c>
+      <c r="L118" s="7">
+        <v>38.2291666666667</v>
+      </c>
+      <c r="M118" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N118" s="5">
+        <v>30</v>
+      </c>
+      <c r="O118" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P118" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q118" s="8">
+        <v>41.279761904761898</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="D119" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="E119" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F119" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G119" s="6">
+        <v>56.547619047619101</v>
+      </c>
+      <c r="H119" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="I119" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="J119" s="5">
+        <v>75</v>
+      </c>
+      <c r="K119" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L119" s="7">
+        <v>52.172619047619101</v>
+      </c>
+      <c r="M119" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="N119" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O119" s="5">
+        <v>75</v>
+      </c>
+      <c r="P119" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q119" s="8">
+        <v>51.235119047619001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C120" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D120" s="5">
+        <v>31.25</v>
+      </c>
+      <c r="E120" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0</v>
+      </c>
+      <c r="G120" s="6">
+        <v>21.3541666666667</v>
+      </c>
+      <c r="H120" s="5">
+        <v>25</v>
+      </c>
+      <c r="I120" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="J120" s="5">
+        <v>25</v>
+      </c>
+      <c r="K120" s="5">
+        <v>0</v>
+      </c>
+      <c r="L120" s="7">
+        <v>19.375</v>
+      </c>
+      <c r="M120" s="5">
+        <v>25</v>
+      </c>
+      <c r="N120" s="5">
+        <v>23.75</v>
+      </c>
+      <c r="O120" s="5">
+        <v>25</v>
+      </c>
+      <c r="P120" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="8">
+        <v>18.4375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D121" s="5">
+        <v>45</v>
+      </c>
+      <c r="E121" s="5">
+        <v>75</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0</v>
+      </c>
+      <c r="G121" s="6">
+        <v>34.1666666666667</v>
+      </c>
+      <c r="H121" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I121" s="5">
+        <v>45</v>
+      </c>
+      <c r="J121" s="5">
+        <v>75</v>
+      </c>
+      <c r="K121" s="5">
+        <v>0</v>
+      </c>
+      <c r="L121" s="7">
+        <v>34.1666666666667</v>
+      </c>
+      <c r="M121" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="N121" s="5">
+        <v>45</v>
+      </c>
+      <c r="O121" s="5">
+        <v>75</v>
+      </c>
+      <c r="P121" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q121" s="8">
+        <v>37.738095238095198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" s="5">
+        <v>25</v>
+      </c>
+      <c r="D122" s="5">
+        <v>53.75</v>
+      </c>
+      <c r="E122" s="5">
+        <v>100</v>
+      </c>
+      <c r="F122" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G122" s="6">
+        <v>51.830357142857103</v>
+      </c>
+      <c r="H122" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I122" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="J122" s="5">
+        <v>100</v>
+      </c>
+      <c r="K122" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L122" s="7">
+        <v>53.601190476190503</v>
+      </c>
+      <c r="M122" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N122" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="O122" s="5">
+        <v>100</v>
+      </c>
+      <c r="P122" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q122" s="8">
+        <v>58.214285714285701</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="D123" s="5">
+        <v>75</v>
+      </c>
+      <c r="E123" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F123" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="G123" s="6">
+        <v>79.761904761904802</v>
+      </c>
+      <c r="H123" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="I123" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="J123" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K123" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="L123" s="7">
+        <v>80.699404761904802</v>
+      </c>
+      <c r="M123" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="N123" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="O123" s="5">
+        <v>100</v>
+      </c>
+      <c r="P123" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q123" s="8">
+        <v>82.782738095238102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="D124" s="5">
+        <v>60</v>
+      </c>
+      <c r="E124" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F124" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G124" s="6">
+        <v>54.434523809523803</v>
+      </c>
+      <c r="H124" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="I124" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="J124" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K124" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L124" s="7">
+        <v>53.497023809523803</v>
+      </c>
+      <c r="M124" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="N124" s="5">
+        <v>60</v>
+      </c>
+      <c r="O124" s="5">
+        <v>75</v>
+      </c>
+      <c r="P124" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q124" s="8">
+        <v>52.351190476190503</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C125" s="5">
+        <v>4.1666666666666696</v>
+      </c>
+      <c r="D125" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="E125" s="5">
+        <v>50</v>
+      </c>
+      <c r="F125" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G125" s="6">
+        <v>24.300595238095202</v>
+      </c>
+      <c r="H125" s="5">
+        <v>4.1666666666666696</v>
+      </c>
+      <c r="I125" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J125" s="5">
+        <v>50</v>
+      </c>
+      <c r="K125" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L125" s="7">
+        <v>24.300595238095202</v>
+      </c>
+      <c r="M125" s="5">
+        <v>4.1666666666666696</v>
+      </c>
+      <c r="N125" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O125" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="P125" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="Q125" s="8">
+        <v>22.217261904761902</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" s="5">
+        <v>50</v>
+      </c>
+      <c r="D126" s="5">
+        <v>65</v>
+      </c>
+      <c r="E126" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F126" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G126" s="6">
+        <v>55.238095238095198</v>
+      </c>
+      <c r="H126" s="5">
+        <v>50</v>
+      </c>
+      <c r="I126" s="5">
+        <v>75</v>
+      </c>
+      <c r="J126" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K126" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L126" s="7">
+        <v>57.738095238095198</v>
+      </c>
+      <c r="M126" s="5">
+        <v>50</v>
+      </c>
+      <c r="N126" s="5">
+        <v>75</v>
+      </c>
+      <c r="O126" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P126" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q126" s="8">
+        <v>69.940476190476204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="5">
+        <v>25</v>
+      </c>
+      <c r="D127" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="E127" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0</v>
+      </c>
+      <c r="G127" s="6">
+        <v>28.9583333333333</v>
+      </c>
+      <c r="H127" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I127" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J127" s="5">
+        <v>50</v>
+      </c>
+      <c r="K127" s="5">
+        <v>0</v>
+      </c>
+      <c r="L127" s="7">
+        <v>29.8958333333333</v>
+      </c>
+      <c r="M127" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N127" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="O127" s="5">
+        <v>50</v>
+      </c>
+      <c r="P127" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q127" s="8">
+        <v>40.610119047619001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D128" s="5">
+        <v>40</v>
+      </c>
+      <c r="E128" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="F128" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G128" s="6">
+        <v>39.613095238095198</v>
+      </c>
+      <c r="H128" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I128" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J128" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K128" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L128" s="7">
+        <v>38.675595238095198</v>
+      </c>
+      <c r="M128" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N128" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="O128" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P128" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q128" s="8">
+        <v>43.288690476190503</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="5">
+        <v>25</v>
+      </c>
+      <c r="D129" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="E129" s="5">
+        <v>100</v>
+      </c>
+      <c r="F129" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G129" s="6">
+        <v>60.848214285714299</v>
+      </c>
+      <c r="H129" s="5">
+        <v>25</v>
+      </c>
+      <c r="I129" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="J129" s="5">
+        <v>100</v>
+      </c>
+      <c r="K129" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L129" s="7">
+        <v>59.598214285714299</v>
+      </c>
+      <c r="M129" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N129" s="5">
+        <v>56.25</v>
+      </c>
+      <c r="O129" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P129" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q129" s="8">
+        <v>66.741071428571402</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="5">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="D130" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="E130" s="5">
+        <v>100</v>
+      </c>
+      <c r="F130" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G130" s="6">
+        <v>78.273809523809504</v>
+      </c>
+      <c r="H130" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="I130" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="J130" s="5">
+        <v>100</v>
+      </c>
+      <c r="K130" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L130" s="7">
+        <v>81.607142857142904</v>
+      </c>
+      <c r="M130" s="5">
+        <v>100</v>
+      </c>
+      <c r="N130" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="O130" s="5">
+        <v>100</v>
+      </c>
+      <c r="P130" s="5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q130" s="8">
+        <v>88.303571428571402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C131" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="D131" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="E131" s="5">
+        <v>50</v>
+      </c>
+      <c r="F131" s="5">
+        <v>0</v>
+      </c>
+      <c r="G131" s="6">
+        <v>21.7708333333333</v>
+      </c>
+      <c r="H131" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="I131" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J131" s="5">
+        <v>50</v>
+      </c>
+      <c r="K131" s="5">
+        <v>0</v>
+      </c>
+      <c r="L131" s="7">
+        <v>21.7708333333333</v>
+      </c>
+      <c r="M131" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="N131" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O131" s="5">
+        <v>50</v>
+      </c>
+      <c r="P131" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q131" s="8">
+        <v>28.913690476190499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" s="5">
+        <v>50</v>
+      </c>
+      <c r="D132" s="5">
+        <v>72.5</v>
+      </c>
+      <c r="E132" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F132" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G132" s="6">
+        <v>60.684523809523803</v>
+      </c>
+      <c r="H132" s="5">
+        <v>50</v>
+      </c>
+      <c r="I132" s="5">
+        <v>72.5</v>
+      </c>
+      <c r="J132" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K132" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L132" s="7">
+        <v>60.684523809523803</v>
+      </c>
+      <c r="M132" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N132" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="O132" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P132" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q132" s="8">
+        <v>65.252976190476204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="D133" s="5">
+        <v>73.75</v>
+      </c>
+      <c r="E133" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F133" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G133" s="6">
+        <v>60.997023809523803</v>
+      </c>
+      <c r="H133" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="I133" s="5">
+        <v>73.75</v>
+      </c>
+      <c r="J133" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K133" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L133" s="7">
+        <v>59.955357142857103</v>
+      </c>
+      <c r="M133" s="5">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="N133" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="O133" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P133" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q133" s="8">
+        <v>71.502976190476204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C134" s="5">
+        <v>75</v>
+      </c>
+      <c r="D134" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="E134" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F134" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G134" s="6">
+        <v>65.505952380952394</v>
+      </c>
+      <c r="H134" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="I134" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="J134" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K134" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L134" s="7">
+        <v>67.589285714285694</v>
+      </c>
+      <c r="M134" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="N134" s="5">
+        <v>48.75</v>
+      </c>
+      <c r="O134" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P134" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q134" s="8">
+        <v>65.610119047619094</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D135" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="E135" s="5">
+        <v>100</v>
+      </c>
+      <c r="F135" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G135" s="6">
+        <v>71.919642857142904</v>
+      </c>
+      <c r="H135" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I135" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="J135" s="5">
+        <v>100</v>
+      </c>
+      <c r="K135" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L135" s="7">
+        <v>71.919642857142904</v>
+      </c>
+      <c r="M135" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N135" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="O135" s="5">
+        <v>100</v>
+      </c>
+      <c r="P135" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q135" s="8">
+        <v>71.919642857142904</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C136" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D136" s="5">
+        <v>15</v>
+      </c>
+      <c r="E136" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F136" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G136" s="6">
+        <v>41.101190476190503</v>
+      </c>
+      <c r="H136" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="I136" s="5">
+        <v>15</v>
+      </c>
+      <c r="J136" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K136" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L136" s="7">
+        <v>47.351190476190503</v>
+      </c>
+      <c r="M136" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="N136" s="5">
+        <v>20</v>
+      </c>
+      <c r="O136" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P136" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q136" s="8">
+        <v>59.315476190476197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C137" s="5">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="D137" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="E137" s="5">
+        <v>75</v>
+      </c>
+      <c r="F137" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="G137" s="6">
+        <v>40.967261904761898</v>
+      </c>
+      <c r="H137" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="I137" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J137" s="5">
+        <v>75</v>
+      </c>
+      <c r="K137" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="L137" s="7">
+        <v>39.925595238095198</v>
+      </c>
+      <c r="M137" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N137" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="O137" s="5">
+        <v>75</v>
+      </c>
+      <c r="P137" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="Q137" s="8">
+        <v>43.497023809523803</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C138" s="5">
+        <v>25</v>
+      </c>
+      <c r="D138" s="5">
+        <v>41.25</v>
+      </c>
+      <c r="E138" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F138" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G138" s="6">
+        <v>50.193452380952401</v>
+      </c>
+      <c r="H138" s="5">
+        <v>25</v>
+      </c>
+      <c r="I138" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="J138" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K138" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L138" s="7">
+        <v>48.943452380952401</v>
+      </c>
+      <c r="M138" s="5">
+        <v>25</v>
+      </c>
+      <c r="N138" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="O138" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P138" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q138" s="8">
+        <v>42.693452380952401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D139" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="E139" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F139" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="G139" s="6">
+        <v>67.410714285714306</v>
+      </c>
+      <c r="H139" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="I139" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="J139" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="K139" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="L139" s="7">
+        <v>69.494047619047606</v>
+      </c>
+      <c r="M139" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N139" s="5">
+        <v>81.25</v>
+      </c>
+      <c r="O139" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P139" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q139" s="8">
+        <v>67.931547619047606</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C140" s="5">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="D140" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="E140" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F140" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="G140" s="6">
+        <v>44.122023809523803</v>
+      </c>
+      <c r="H140" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="I140" s="5">
+        <v>40</v>
+      </c>
+      <c r="J140" s="5">
+        <v>75</v>
+      </c>
+      <c r="K140" s="5">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L140" s="7">
+        <v>40.059523809523803</v>
+      </c>
+      <c r="M140" s="5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="N140" s="5">
+        <v>36.25</v>
+      </c>
+      <c r="O140" s="5">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="P140" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="Q140" s="8">
+        <v>38.526785714285701</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="D141" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="E141" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F141" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G141" s="6">
+        <v>52.901785714285701</v>
+      </c>
+      <c r="H141" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="I141" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="J141" s="5">
+        <v>75</v>
+      </c>
+      <c r="K141" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L141" s="7">
+        <v>50.818452380952401</v>
+      </c>
+      <c r="M141" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N141" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="O141" s="5">
+        <v>75</v>
+      </c>
+      <c r="P141" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q141" s="8">
+        <v>54.389880952380899</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" s="5">
+        <v>50</v>
+      </c>
+      <c r="D142" s="5">
+        <v>70</v>
+      </c>
+      <c r="E142" s="5">
+        <v>50</v>
+      </c>
+      <c r="F142" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G142" s="6">
+        <v>53.214285714285701</v>
+      </c>
+      <c r="H142" s="5">
+        <v>50</v>
+      </c>
+      <c r="I142" s="5">
+        <v>70</v>
+      </c>
+      <c r="J142" s="5">
+        <v>50</v>
+      </c>
+      <c r="K142" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L142" s="7">
+        <v>53.214285714285701</v>
+      </c>
+      <c r="M142" s="5">
+        <v>50</v>
+      </c>
+      <c r="N142" s="5">
+        <v>70</v>
+      </c>
+      <c r="O142" s="5">
+        <v>50</v>
+      </c>
+      <c r="P142" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q142" s="8">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C143" s="5">
+        <v>25</v>
+      </c>
+      <c r="D143" s="5">
+        <v>38.75</v>
+      </c>
+      <c r="E143" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F143" s="5">
+        <v>0</v>
+      </c>
+      <c r="G143" s="6">
+        <v>36.7708333333333</v>
+      </c>
+      <c r="H143" s="5">
+        <v>25</v>
+      </c>
+      <c r="I143" s="5">
+        <v>31.25</v>
+      </c>
+      <c r="J143" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K143" s="5">
+        <v>0</v>
+      </c>
+      <c r="L143" s="7">
+        <v>34.8958333333333</v>
+      </c>
+      <c r="M143" s="5">
+        <v>25</v>
+      </c>
+      <c r="N143" s="5">
+        <v>31.25</v>
+      </c>
+      <c r="O143" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P143" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="8">
+        <v>30.7291666666667</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C144" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="D144" s="5">
+        <v>53.75</v>
+      </c>
+      <c r="E144" s="5">
+        <v>100</v>
+      </c>
+      <c r="F144" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G144" s="6">
+        <v>71.919642857142904</v>
+      </c>
+      <c r="H144" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="I144" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="J144" s="5">
+        <v>100</v>
+      </c>
+      <c r="K144" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="L144" s="7">
+        <v>72.857142857142904</v>
+      </c>
+      <c r="M144" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="N144" s="5">
+        <v>53.75</v>
+      </c>
+      <c r="O144" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="P144" s="5">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="Q144" s="8">
+        <v>69.836309523809504</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C145" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D145" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="E145" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F145" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="G145" s="6">
+        <v>61.547619047619101</v>
+      </c>
+      <c r="H145" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I145" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="J145" s="5">
+        <v>75</v>
+      </c>
+      <c r="K145" s="5">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="L145" s="7">
+        <v>59.464285714285701</v>
+      </c>
+      <c r="M145" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N145" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="O145" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P145" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q145" s="8">
+        <v>63.869047619047599</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C146" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="D146" s="5">
+        <v>70</v>
+      </c>
+      <c r="E146" s="5">
+        <v>91.6666666666667</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0</v>
+      </c>
+      <c r="G146" s="6">
+        <v>48.75</v>
+      </c>
+      <c r="H146" s="5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I146" s="5">
+        <v>65</v>
+      </c>
+      <c r="J146" s="5">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K146" s="5">
+        <v>0</v>
+      </c>
+      <c r="L146" s="7">
+        <v>45.4166666666667</v>
+      </c>
+      <c r="M146" s="5">
+        <v>41.6666666666667</v>
+      </c>
+      <c r="N146" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="O146" s="5">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="P146" s="5">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="Q146" s="8">
+        <v>58.556547619047599</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q146">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>